--- a/analyses/unipept-table-results/268+269_propeps.xlsx
+++ b/analyses/unipept-table-results/268+269_propeps.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/unipept-table-results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{09F5B0A7-7C1B-744E-9266-5390F59FB204}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBC6D2A-76AD-A34F-8183-59DFE0D0DF48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="1520" windowWidth="22700" windowHeight="11400" activeTab="1"/>
+    <workbookView xWindow="2000" yWindow="1520" windowWidth="22700" windowHeight="11400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="268+269_propeps" sheetId="1" r:id="rId1"/>
-    <sheet name="prok only" sheetId="2" r:id="rId2"/>
+    <sheet name="DB peps" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -2231,7 +2231,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -3065,7 +3065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8347,11 +8347,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="A340" sqref="A340:XFD340"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/analyses/unipept-table-results/268+269_propeps.xlsx
+++ b/analyses/unipept-table-results/268+269_propeps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/unipept-table-results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBC6D2A-76AD-A34F-8183-59DFE0D0DF48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55030DC5-912C-E747-9345-B2365F2318C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="1520" windowWidth="22700" windowHeight="11400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2000" yWindow="1520" windowWidth="27260" windowHeight="14500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="268+269_propeps" sheetId="1" r:id="rId1"/>
@@ -2232,7 +2232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3069,12 +3069,12 @@
   <dimension ref="A1:AD397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AD397"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>108</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>120</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>121</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>125</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>126</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>129</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>130</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>131</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>133</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>134</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>135</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>136</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>138</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>139</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>140</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>141</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>142</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>143</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>144</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>145</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>146</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>147</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>148</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>149</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>150</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>151</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>152</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>153</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>154</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>155</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>156</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>157</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>158</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>165</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>173</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>174</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>175</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>176</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>177</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>178</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>179</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>180</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>181</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>182</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>190</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>191</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>192</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>193</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>198</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>199</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>200</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>201</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>202</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>203</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>204</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>219</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>220</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>227</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>232</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>238</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>242</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>243</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>244</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>245</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>246</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>247</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>252</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>253</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>254</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>255</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>257</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>264</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>265</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>266</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>267</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>268</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>269</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>275</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>276</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>277</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>278</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>279</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:27">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>280</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:27">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>281</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>282</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>283</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>288</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>289</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>290</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>291</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>292</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>293</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>294</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>295</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>296</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>311</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>315</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>316</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>317</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>318</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>319</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>320</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>321</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>322</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>323</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>324</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>327</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>328</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>329</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>330</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>331</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>332</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>333</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>334</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>335</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>336</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>337</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="161" spans="1:27">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>338</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="1:27">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>339</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="163" spans="1:27">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>340</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="164" spans="1:27">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>343</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:27">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>344</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:27">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>345</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:27">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>346</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="1:27">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>347</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:27">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>348</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="170" spans="1:27">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>355</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="1:27">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>356</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:27">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>357</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="173" spans="1:27">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>358</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="174" spans="1:27">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>362</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="175" spans="1:27">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>364</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:27">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>365</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="1:27">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>366</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="1:27">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>367</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="179" spans="1:27">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>374</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:27">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>375</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="181" spans="1:27">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>376</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:27">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>377</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="1:27">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>378</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:27">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>379</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:27">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>380</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="186" spans="1:27">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>381</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="187" spans="1:27">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>382</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="188" spans="1:27">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>383</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="189" spans="1:27">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>384</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="1:27">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>385</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="191" spans="1:27">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>393</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="192" spans="1:27">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>394</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:27">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>395</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="194" spans="1:27">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>396</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:27">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>397</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="196" spans="1:27">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>398</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="1:27">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>399</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="198" spans="1:27">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>405</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="199" spans="1:27">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>406</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="200" spans="1:27">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>416</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="201" spans="1:27">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>426</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="202" spans="1:27">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>427</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:27">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>428</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="204" spans="1:27">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>430</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="205" spans="1:27">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>431</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:27">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>432</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:27">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>433</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:27">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>434</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="209" spans="1:27">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>435</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:27">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>436</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:27">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>437</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="212" spans="1:27">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>438</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="213" spans="1:27">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>439</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:27">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>440</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:27">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>441</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="216" spans="1:27">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>442</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="217" spans="1:27">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>443</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:27">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>444</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="219" spans="1:27">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>445</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="220" spans="1:27">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>446</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="221" spans="1:27">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>447</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="222" spans="1:27">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>448</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="223" spans="1:27">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>454</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="224" spans="1:27">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>460</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="225" spans="1:27">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>461</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:27">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>462</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="227" spans="1:27">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>468</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="228" spans="1:27">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>469</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:27">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>470</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="230" spans="1:27">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>471</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="231" spans="1:27">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>472</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="232" spans="1:27">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>473</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="233" spans="1:27">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>474</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="234" spans="1:27">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>475</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="235" spans="1:27">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>476</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="236" spans="1:27">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>477</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="237" spans="1:27">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>478</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="238" spans="1:27">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>479</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="1:27">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>480</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="240" spans="1:27">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>481</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="241" spans="1:27">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>482</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="242" spans="1:27">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>483</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:27">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>484</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="244" spans="1:27">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>485</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="245" spans="1:27">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>491</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="246" spans="1:27">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>492</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="247" spans="1:27">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>493</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="248" spans="1:27">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>494</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="249" spans="1:27">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>504</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="250" spans="1:27">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>510</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="251" spans="1:27">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>512</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="252" spans="1:27">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>513</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="253" spans="1:27">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>517</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="254" spans="1:27">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>518</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="255" spans="1:27">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>520</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="256" spans="1:27">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>521</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>522</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>523</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>524</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>525</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>526</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>527</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>528</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>529</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>530</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>531</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>532</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>533</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>534</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>535</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>536</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>537</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>541</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>542</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>543</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>544</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>545</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>546</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>547</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>548</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>553</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>554</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>555</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>556</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>557</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>558</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>559</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>560</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>561</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>562</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>563</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>564</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>565</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>566</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>567</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>568</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>569</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>570</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>571</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>572</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>573</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>574</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>575</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>576</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="305" spans="1:27">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>577</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="306" spans="1:27">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>578</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="307" spans="1:27">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>579</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="308" spans="1:27">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>591</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" spans="1:27">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>592</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="310" spans="1:27">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>593</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="311" spans="1:27">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>594</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="312" spans="1:27">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>595</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="313" spans="1:27">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>596</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="314" spans="1:27">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>597</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="315" spans="1:27">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>598</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="316" spans="1:27">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>599</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="317" spans="1:27">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>605</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="318" spans="1:27">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>606</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="319" spans="1:27">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>607</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="320" spans="1:27">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>608</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="321" spans="1:27">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>610</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="322" spans="1:27">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>616</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="323" spans="1:27">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>618</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="324" spans="1:27">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>621</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="325" spans="1:27">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>622</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="326" spans="1:27">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>623</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="327" spans="1:27">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>624</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="328" spans="1:27">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>625</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="329" spans="1:27">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>626</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="330" spans="1:27">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>627</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="331" spans="1:27">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>636</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="332" spans="1:27">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>638</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="333" spans="1:27">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>639</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="334" spans="1:27">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>640</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="335" spans="1:27">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>641</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="336" spans="1:27">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>642</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="337" spans="1:27">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>643</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="338" spans="1:27">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>644</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="339" spans="1:27">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>645</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="340" spans="1:27">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>648</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="341" spans="1:27">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>649</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="342" spans="1:27">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>650</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="343" spans="1:27">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>657</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="344" spans="1:27">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>658</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="345" spans="1:27">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>664</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="346" spans="1:27">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>665</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="347" spans="1:27">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>666</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="348" spans="1:27">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>667</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="349" spans="1:27">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>668</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="350" spans="1:27">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>669</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="351" spans="1:27">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>670</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="352" spans="1:27">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>671</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="353" spans="1:27">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>672</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="354" spans="1:27">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>673</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="355" spans="1:27">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>674</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="356" spans="1:27">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>675</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="357" spans="1:27">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>676</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="358" spans="1:27">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>677</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="359" spans="1:27">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>678</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="360" spans="1:27">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>679</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="361" spans="1:27">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>680</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="362" spans="1:27">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>681</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="363" spans="1:27">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>688</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="364" spans="1:27">
+    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>689</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="365" spans="1:27">
+    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>690</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="366" spans="1:27">
+    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>691</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="367" spans="1:27">
+    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>692</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="368" spans="1:27">
+    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>693</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="369" spans="1:27">
+    <row r="369" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>699</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="370" spans="1:27">
+    <row r="370" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>700</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="371" spans="1:27">
+    <row r="371" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>701</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="372" spans="1:27">
+    <row r="372" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>702</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="373" spans="1:27">
+    <row r="373" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>703</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="374" spans="1:27">
+    <row r="374" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>704</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="375" spans="1:27">
+    <row r="375" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>705</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="376" spans="1:27">
+    <row r="376" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>706</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="377" spans="1:27">
+    <row r="377" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>710</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="378" spans="1:27">
+    <row r="378" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>711</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="379" spans="1:27">
+    <row r="379" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>712</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="380" spans="1:27">
+    <row r="380" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>713</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="381" spans="1:27">
+    <row r="381" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>714</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="382" spans="1:27">
+    <row r="382" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>715</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="383" spans="1:27">
+    <row r="383" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>716</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="384" spans="1:27">
+    <row r="384" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>717</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="385" spans="1:27">
+    <row r="385" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>718</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="386" spans="1:27">
+    <row r="386" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>723</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="387" spans="1:27">
+    <row r="387" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>724</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="388" spans="1:27">
+    <row r="388" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>725</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="389" spans="1:27">
+    <row r="389" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>726</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="390" spans="1:27">
+    <row r="390" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>727</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="391" spans="1:27">
+    <row r="391" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>728</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="392" spans="1:27">
+    <row r="392" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>729</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="393" spans="1:27">
+    <row r="393" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>730</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="394" spans="1:27">
+    <row r="394" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>731</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="395" spans="1:27">
+    <row r="395" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>732</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="396" spans="1:27">
+    <row r="396" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>733</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="397" spans="1:27">
+    <row r="397" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>734</v>
       </c>
@@ -8351,12 +8351,12 @@
   <dimension ref="A1:AD392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I388" sqref="I388"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>108</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>117</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>125</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>128</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>129</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>131</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>132</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>134</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>135</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>139</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>140</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>141</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>142</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>143</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>144</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>145</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>146</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>147</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>148</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>149</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>150</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>151</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>152</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>153</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>154</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>155</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>156</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>157</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>158</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>165</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>166</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>173</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>174</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>175</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>176</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>177</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>178</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>179</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>180</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>181</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>182</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>190</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>191</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>192</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>193</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>198</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>199</v>
       </c>
@@ -9579,7 +9579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>200</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>201</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>202</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>203</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>204</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>219</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>220</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>227</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>232</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>238</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>242</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>243</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>244</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>245</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>246</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>247</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>252</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>253</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>254</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>255</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>257</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>264</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>265</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>266</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>267</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>268</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>269</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>275</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>276</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>277</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>278</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>279</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>280</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>281</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="1:27">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>282</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:27">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>283</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>288</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>289</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>290</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>291</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>292</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>293</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>294</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>295</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>296</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>311</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>315</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>316</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>317</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>318</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>319</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>320</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>321</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>322</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>323</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>324</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>327</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>328</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>329</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>330</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>331</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>332</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>333</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>334</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>335</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>336</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>337</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>338</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>339</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="1:27">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>340</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="162" spans="1:27">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>343</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="163" spans="1:27">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>344</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:27">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>345</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:27">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>346</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:27">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>347</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:27">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>348</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="168" spans="1:27">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>355</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:27">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>356</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:27">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>357</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="1:27">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>358</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="172" spans="1:27">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>362</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="173" spans="1:27">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>364</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:27">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>365</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="175" spans="1:27">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>366</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:27">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>367</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="177" spans="1:27">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>374</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="1:27">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>375</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="179" spans="1:27">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>376</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:27">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>377</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:27">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>378</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:27">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>379</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="1:27">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>380</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="184" spans="1:27">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>381</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:27">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>382</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="1:27">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>383</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="187" spans="1:27">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>384</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:27">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>385</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="189" spans="1:27">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>393</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="190" spans="1:27">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>394</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="1:27">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>395</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="192" spans="1:27">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>396</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:27">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>397</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="1:27">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>398</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:27">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>406</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="196" spans="1:27">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>416</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="197" spans="1:27">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>426</v>
       </c>
@@ -11063,7 +11063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:27">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>427</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:27">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>428</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="200" spans="1:27">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>430</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="201" spans="1:27">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>431</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="202" spans="1:27">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>432</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="203" spans="1:27">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>433</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="204" spans="1:27">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>434</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="205" spans="1:27">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>435</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:27">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>436</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="207" spans="1:27">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>437</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:27">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>438</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="209" spans="1:27">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>439</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:27">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>440</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:27">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>441</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="212" spans="1:27">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>442</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:27">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>443</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:27">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>444</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="215" spans="1:27">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>445</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="1:27">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>446</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="217" spans="1:27">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>447</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:27">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>448</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="219" spans="1:27">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>454</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="220" spans="1:27">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>460</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="221" spans="1:27">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>461</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="222" spans="1:27">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>462</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="223" spans="1:27">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>468</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="224" spans="1:27">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>469</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="225" spans="1:20">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>470</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:20">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>471</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:20">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>472</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="228" spans="1:20">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>473</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:20">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>474</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="230" spans="1:20">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>475</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="231" spans="1:20">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>476</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="232" spans="1:20">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>477</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="233" spans="1:20">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>478</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="234" spans="1:20">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>479</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="235" spans="1:20">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>480</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="236" spans="1:20">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>481</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="237" spans="1:20">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>482</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="238" spans="1:20">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>483</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="1:20">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>484</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="240" spans="1:20">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>485</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="241" spans="1:27">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>491</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="242" spans="1:27">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>492</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:27">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>493</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="244" spans="1:27">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>494</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="245" spans="1:27">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>504</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="246" spans="1:27">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>510</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="247" spans="1:27">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>512</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="248" spans="1:27">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>513</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="249" spans="1:27">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>517</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="250" spans="1:27">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>518</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="251" spans="1:27">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>520</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="252" spans="1:27">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>521</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="253" spans="1:27">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>522</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:27">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>523</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="1:27">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>524</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="256" spans="1:27">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>525</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>526</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>527</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>528</v>
       </c>
@@ -11901,7 +11901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>529</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>530</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>531</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>532</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>533</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>534</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>535</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>536</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>537</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>541</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>542</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>543</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>544</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>545</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>546</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>547</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>548</v>
       </c>
@@ -12085,7 +12085,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>553</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>554</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>555</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>556</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>557</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>558</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>559</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>560</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>561</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>562</v>
       </c>
@@ -12168,7 +12168,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>563</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>564</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="289" spans="1:27">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>565</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="290" spans="1:27">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>566</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="291" spans="1:27">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>567</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="292" spans="1:27">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>568</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="293" spans="1:27">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>569</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="294" spans="1:27">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>570</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="295" spans="1:27">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>571</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="296" spans="1:27">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>572</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:27">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>573</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="298" spans="1:27">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>574</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="299" spans="1:27">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>575</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="300" spans="1:27">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>576</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="301" spans="1:27">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>577</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="302" spans="1:27">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>578</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="303" spans="1:27">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>579</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="304" spans="1:27">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>591</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="305" spans="1:27">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>592</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="306" spans="1:27">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>593</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="307" spans="1:27">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>594</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="308" spans="1:27">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>595</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="309" spans="1:27">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>596</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="310" spans="1:27">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>597</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="311" spans="1:27">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>598</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="312" spans="1:27">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>599</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="313" spans="1:27">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>605</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="314" spans="1:27">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>606</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="315" spans="1:27">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>607</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="316" spans="1:27">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>608</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="317" spans="1:27">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>610</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="318" spans="1:27">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>616</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="319" spans="1:27">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>618</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="320" spans="1:27">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>621</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="321" spans="1:27">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>622</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="322" spans="1:27">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>623</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="323" spans="1:27">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>624</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="324" spans="1:27">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>625</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="325" spans="1:27">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>626</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="326" spans="1:27">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>627</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="327" spans="1:27">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>636</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="328" spans="1:27">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>638</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="329" spans="1:27">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>639</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="330" spans="1:27">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>640</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="331" spans="1:27">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>641</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="332" spans="1:27">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>642</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="333" spans="1:27">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>643</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="334" spans="1:27">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>644</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="335" spans="1:27">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>645</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="336" spans="1:27">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>648</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="337" spans="1:27">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>649</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="338" spans="1:27">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>650</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="339" spans="1:27">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>657</v>
       </c>
@@ -12877,7 +12877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="340" spans="1:27">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>664</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="341" spans="1:27">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>665</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="342" spans="1:27">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>666</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="343" spans="1:27">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>667</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="344" spans="1:27">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>668</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="345" spans="1:27">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>669</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="346" spans="1:27">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>670</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="347" spans="1:27">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>671</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="348" spans="1:27">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>672</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="349" spans="1:27">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>673</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="350" spans="1:27">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>674</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="351" spans="1:27">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>675</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="352" spans="1:27">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>676</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="353" spans="1:27">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>677</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="354" spans="1:27">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>678</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="355" spans="1:27">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>679</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="356" spans="1:27">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>680</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="357" spans="1:27">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>681</v>
       </c>
@@ -13054,7 +13054,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="358" spans="1:27">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>688</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="359" spans="1:27">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>689</v>
       </c>
@@ -13070,7 +13070,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="360" spans="1:27">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>690</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="361" spans="1:27">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>691</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="362" spans="1:27">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>692</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="363" spans="1:27">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>693</v>
       </c>
@@ -13123,7 +13123,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="364" spans="1:27">
+    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>699</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="365" spans="1:27">
+    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>700</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="366" spans="1:27">
+    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>701</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="367" spans="1:27">
+    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>702</v>
       </c>
@@ -13158,7 +13158,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="368" spans="1:27">
+    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>703</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="369" spans="1:27">
+    <row r="369" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>704</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="370" spans="1:27">
+    <row r="370" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>705</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="371" spans="1:27">
+    <row r="371" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>706</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="372" spans="1:27">
+    <row r="372" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>710</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="373" spans="1:27">
+    <row r="373" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>711</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="374" spans="1:27">
+    <row r="374" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>712</v>
       </c>
@@ -13268,7 +13268,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="375" spans="1:27">
+    <row r="375" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>713</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="376" spans="1:27">
+    <row r="376" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>714</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="377" spans="1:27">
+    <row r="377" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>715</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="378" spans="1:27">
+    <row r="378" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>716</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="379" spans="1:27">
+    <row r="379" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>717</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="380" spans="1:27">
+    <row r="380" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>718</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="381" spans="1:27">
+    <row r="381" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>723</v>
       </c>
@@ -13348,7 +13348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="382" spans="1:27">
+    <row r="382" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>724</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="383" spans="1:27">
+    <row r="383" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>725</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="384" spans="1:27">
+    <row r="384" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>726</v>
       </c>
@@ -13375,7 +13375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>727</v>
       </c>
@@ -13386,7 +13386,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>728</v>
       </c>
@@ -13397,7 +13397,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>729</v>
       </c>
@@ -13405,7 +13405,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>730</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>731</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>732</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>733</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>734</v>
       </c>
